--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086C86D-161E-4035-AD7B-837B0ADA61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7D219-954A-4055-A367-DAB2C02155E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,19 +251,19 @@
     <t>随机任务护送商队被击溃</t>
   </si>
   <si>
-    <t>[[red:Preciso falar com você em particular...]]</t>
-  </si>
-  <si>
-    <t>[[red:Sobre nosso plano...]]</t>
-  </si>
-  <si>
-    <t>[[red:Desejo falar com você em nome de [$player:campname$].]]</t>
+    <t>[[red:Preciso falar contigo em particular...]]</t>
+  </si>
+  <si>
+    <t>[[red:Sobre nosso plano...]]]</t>
   </si>
   <si>
     <t>[[red:Sobre [%str_val:随机任务诬告城主目标名称%]...]]</t>
   </si>
   <si>
-    <t>[[red:Tenho uma carta para você.]]</t>
+    <t>[[red:Eu, em nome de [$player:campname$], tenho algo para discutir contigo.]]</t>
+  </si>
+  <si>
+    <t>[[red:Eu tenho uma carta para você.]]</t>
   </si>
 </sst>
 </file>
@@ -862,15 +862,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
@@ -884,31 +884,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="22.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="33.75">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,145 +920,145 @@
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="33.75">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="33.75">
+    <row r="9" spans="1:3" ht="22.5">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="33.75">
+    <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="33.75">
+    <row r="11" spans="1:3" ht="22.5">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="33.75">
+    <row r="12" spans="1:3" ht="22.5">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="33.75">
+    <row r="13" spans="1:3" ht="22.5">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="33.75">
+    <row r="14" spans="1:3" ht="22.5">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="33.75">
+    <row r="15" spans="1:3" ht="22.5">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="33.75">
+    <row r="16" spans="1:3" ht="22.5">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="33.75">
+    <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="33.75">
+    <row r="18" spans="1:2" ht="22.5">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="33.75">
+    <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" ht="33.75">
+    <row r="20" spans="1:2" ht="22.5">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="33.75">
+    <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="33.75">
+    <row r="22" spans="1:2" ht="22.5">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="33.75">
+    <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="33.75">
+    <row r="24" spans="1:2" ht="22.5">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="33.75">
+    <row r="25" spans="1:2" ht="22.5">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="33.75">
+    <row r="26" spans="1:2" ht="22.5">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" ht="33.75">
+    <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" ht="33.75">
+    <row r="28" spans="1:2" ht="22.5">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" ht="33.75">
+    <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="33.75">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="33.75">
+    <row r="31" spans="1:2" ht="22.5">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="33.75">
+    <row r="38" spans="1:3" ht="22.5">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="67.5">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="67.5">
@@ -1146,16 +1146,16 @@
         <v>46</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:3" ht="33.75">
+    <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1172,13 +1172,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="33.75">
+    <row r="45" spans="1:3" ht="22.5">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="33.75">
+    <row r="46" spans="1:3" ht="22.5">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="22.5">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="33.75">
+    <row r="51" spans="1:2" ht="22.5">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="33.75">
+    <row r="62" spans="1:2">
       <c r="A62" s="15" t="s">
         <v>68</v>
       </c>
